--- a/otros/check functions.xlsx
+++ b/otros/check functions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>modificarDatosEmpresa</t>
+  </si>
+  <si>
+    <t>mostrarViajesEmpresa</t>
+  </si>
+  <si>
+    <t>listarViajesEmpresa</t>
+  </si>
+  <si>
+    <t>borrarEmpresa</t>
+  </si>
+  <si>
+    <t>eliminarEmpresa</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B8:B10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +573,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -570,7 +582,9 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -579,7 +593,9 @@
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -588,7 +604,7 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -597,7 +613,9 @@
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -606,7 +624,9 @@
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>

--- a/otros/check functions.xlsx
+++ b/otros/check functions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -87,14 +87,100 @@
   </si>
   <si>
     <t>eliminarEmpresa</t>
+  </si>
+  <si>
+    <t>mostrarPasajerosViaje</t>
+  </si>
+  <si>
+    <t>listarPasajerosViaje</t>
+  </si>
+  <si>
+    <t>verViajes</t>
+  </si>
+  <si>
+    <t>listarViajes</t>
+  </si>
+  <si>
+    <t>borrarViaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eliminarViaje</t>
+  </si>
+  <si>
+    <t>verResponsables</t>
+  </si>
+  <si>
+    <t>listarResponsables</t>
+  </si>
+  <si>
+    <t>verPasajeros</t>
+  </si>
+  <si>
+    <t>listarPasajeros</t>
+  </si>
+  <si>
+    <t>cargarViaje</t>
+  </si>
+  <si>
+    <t>cargarResponsable</t>
+  </si>
+  <si>
+    <t>cargarPasajero</t>
+  </si>
+  <si>
+    <t>agregarPasajero</t>
+  </si>
+  <si>
+    <t>agregarResponsable</t>
+  </si>
+  <si>
+    <t>agregarViaje</t>
+  </si>
+  <si>
+    <t>modificarViaje</t>
+  </si>
+  <si>
+    <t>modificarResponsable</t>
+  </si>
+  <si>
+    <t>borrarResponsable</t>
+  </si>
+  <si>
+    <t>eliminarResponsable</t>
+  </si>
+  <si>
+    <t>modificarPasajero</t>
+  </si>
+  <si>
+    <t>modificarDatosViaje</t>
+  </si>
+  <si>
+    <t>modificarDatosResponsable</t>
+  </si>
+  <si>
+    <t>modificarDatosPasajero</t>
+  </si>
+  <si>
+    <t>borrarPasajero</t>
+  </si>
+  <si>
+    <t>eliminarPasajero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -158,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -167,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +537,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +545,7 @@
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,9 +568,9 @@
         <v>4</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -492,9 +579,15 @@
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -503,16 +596,22 @@
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
@@ -523,9 +622,15 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -534,9 +639,15 @@
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -554,9 +665,15 @@
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -565,16 +682,22 @@
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
@@ -585,9 +708,15 @@
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -596,16 +725,22 @@
       <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
@@ -616,8 +751,10 @@
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,7 +764,9 @@
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
